--- a/amplify/data/product/local/editor_sticker_local.xlsx
+++ b/amplify/data/product/local/editor_sticker_local.xlsx
@@ -560,7 +560,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>efc3c5dc-ceb0-11ec-90ec-acde48001122</t>
+          <t>206df882-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -627,7 +627,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>efc3c6c2-ceb0-11ec-90ec-acde48001122</t>
+          <t>206df9cc-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="O3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -694,7 +694,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>efc3c6fe-ceb0-11ec-90ec-acde48001122</t>
+          <t>206dfa12-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="O4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -761,7 +761,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>efc3c726-ceb0-11ec-90ec-acde48001122</t>
+          <t>206dfa3a-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="O5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -828,7 +828,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>efc3c74e-ceb0-11ec-90ec-acde48001122</t>
+          <t>206dfa6c-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="O6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -895,7 +895,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>efc3c776-ceb0-11ec-90ec-acde48001122</t>
+          <t>206dfa94-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="O7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -962,7 +962,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>efc3c79e-ceb0-11ec-90ec-acde48001122</t>
+          <t>206dfac6-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="O8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>efc3c7c6-ceb0-11ec-90ec-acde48001122</t>
+          <t>206dfaee-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="O9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>efc3c7e4-ceb0-11ec-90ec-acde48001122</t>
+          <t>206dfb16-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="O10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>efc3c80c-ceb0-11ec-90ec-acde48001122</t>
+          <t>206dfb3e-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="O11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>efc3c834-ceb0-11ec-90ec-acde48001122</t>
+          <t>206dfb70-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1240,11 +1240,11 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>sticker/previews/ily_202204_01A.gif</t>
+          <t>sticker/previews/ily_202204_01A.png</t>
         </is>
       </c>
       <c r="O12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>efc3c85c-ceb0-11ec-90ec-acde48001122</t>
+          <t>206dfb98-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="O13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>efc3c884-ceb0-11ec-90ec-acde48001122</t>
+          <t>206dfbc0-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="O14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>efc3c8ac-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0016-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="O15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>efc3c8d4-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e00c0-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="O16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>efc3c8fc-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e00fc-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1579,7 +1579,7 @@
         </is>
       </c>
       <c r="O17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>efc3c924-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e012e-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1642,11 +1642,11 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>sticker/previews/ily_202204_04A.gif</t>
+          <t>sticker/previews/ily_202204_04A.png</t>
         </is>
       </c>
       <c r="O18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>efc3c94c-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0156-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="O19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>efc3c974-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0188-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="O20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>efc3c99c-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e01b0-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="O21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>efc3c9c4-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e01e2-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1914,7 +1914,7 @@
         </is>
       </c>
       <c r="O22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>efc3c9ec-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e020a-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1981,7 +1981,7 @@
         </is>
       </c>
       <c r="O23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>efc3ca0a-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e023c-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="O24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>efc3cafa-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0264-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="O25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>efc3cb2c-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e028c-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="O26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>efc3cb4a-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e02be-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="O27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>efc3cb72-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e02e6-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="O28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>efc3cb9a-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0318-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="O29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>efc3cbc2-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0340-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2446,11 +2446,11 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>sticker/previews/ily_202204_10A.gif</t>
+          <t>sticker/previews/ily_202204_10A.png</t>
         </is>
       </c>
       <c r="O30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>efc3cbf4-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0372-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="O31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>efc3cc1c-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e039a-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2580,11 +2580,11 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>sticker/previews/like_202204_01A.gif</t>
+          <t>sticker/previews/like_202204_01A.png</t>
         </is>
       </c>
       <c r="O32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>efc3cc3a-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e03cc-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="O33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>efc3cc62-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e03f4-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="O34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>efc3ccb2-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e041c-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="O35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>efc3ccda-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e044e-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="O36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>efc3cd02-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0476-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -2919,7 +2919,7 @@
         </is>
       </c>
       <c r="O37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>efc3cd2a-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e049e-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -2982,11 +2982,11 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>sticker/previews/like_202204_04A.gif</t>
+          <t>sticker/previews/like_202204_04A.png</t>
         </is>
       </c>
       <c r="O38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>efc3cd52-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e04d0-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3053,7 +3053,7 @@
         </is>
       </c>
       <c r="O39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>efc3cd7a-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e04f8-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3116,11 +3116,11 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>sticker/previews/like_202204_05A.gif</t>
+          <t>sticker/previews/like_202204_05A.png</t>
         </is>
       </c>
       <c r="O40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>efc3cd98-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0520-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="O41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>efc3cdc0-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0552-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3254,7 +3254,7 @@
         </is>
       </c>
       <c r="O42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>efc3cde8-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e057a-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="O43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>efc3ce10-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e05ac-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3384,11 +3384,11 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>sticker/previews/like_202204_07A.gif</t>
+          <t>sticker/previews/like_202204_07A.png</t>
         </is>
       </c>
       <c r="O44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>efc3ce38-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e05d4-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3455,7 +3455,7 @@
         </is>
       </c>
       <c r="O45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -3508,7 +3508,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>efc3ce60-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0606-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="O46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>efc3ce88-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e062e-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -3589,7 +3589,7 @@
         </is>
       </c>
       <c r="O47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>efc3cea6-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0656-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="O48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>efc3cee2-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0688-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="O49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>efc3cf0a-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e06b0-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="O50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>efc3cf32-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e06d8-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -3857,7 +3857,7 @@
         </is>
       </c>
       <c r="O51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>efc3cf5a-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e070a-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -3920,11 +3920,11 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>sticker/previews/spring_202204_01.gif</t>
+          <t>sticker/previews/spring_202204_01.png</t>
         </is>
       </c>
       <c r="O52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>efc3cf82-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0822-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -3991,7 +3991,7 @@
         </is>
       </c>
       <c r="O53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>efc3cfaa-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0854-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -4054,11 +4054,11 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>sticker/previews/spring_202204_03.gif</t>
+          <t>sticker/previews/spring_202204_03.png</t>
         </is>
       </c>
       <c r="O54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>efc3cfd2-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e087c-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="O55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>efc3cffa-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e08a4-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="O56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>efc3d018-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e08d6-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -4259,7 +4259,7 @@
         </is>
       </c>
       <c r="O57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>efc3d040-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e08fe-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="O58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -4379,7 +4379,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>efc3d068-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0926-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -4393,7 +4393,7 @@
         </is>
       </c>
       <c r="O59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>efc3d090-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0958-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="O60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>efc3d0b8-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0980-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="O61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>efc3d0e0-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e09a8-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -4590,11 +4590,11 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>sticker/previews/brasilcarnival_202204_0.gif</t>
+          <t>sticker/previews/brasilcarnival_202204_0.png</t>
         </is>
       </c>
       <c r="O62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>efc3d108-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e09da-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -4661,7 +4661,7 @@
         </is>
       </c>
       <c r="O63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>efc3d130-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0a02-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -4728,7 +4728,7 @@
         </is>
       </c>
       <c r="O64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>efc3d158-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0a34-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -4795,7 +4795,7 @@
         </is>
       </c>
       <c r="O65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>efc3d180-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0a5c-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="O66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -4915,7 +4915,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>efc3d1a8-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0a8e-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -4929,7 +4929,7 @@
         </is>
       </c>
       <c r="O67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -4982,7 +4982,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>efc3d1d0-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0ab6-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="O68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>efc3d1f8-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0ae8-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -5063,7 +5063,7 @@
         </is>
       </c>
       <c r="O69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>efc3d220-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0b10-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -5130,7 +5130,7 @@
         </is>
       </c>
       <c r="O70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>efc3d23e-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0b42-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -5197,7 +5197,7 @@
         </is>
       </c>
       <c r="O71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>efc3d266-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0b6a-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -5264,7 +5264,7 @@
         </is>
       </c>
       <c r="O72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>efc3d28e-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0b92-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -5327,11 +5327,11 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>sticker/previews/brasilcarnival_202204_Recife.gif</t>
+          <t>sticker/previews/brasilcarnival_202204_Recife.png</t>
         </is>
       </c>
       <c r="O73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>efc3d2b6-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0bc4-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -5394,11 +5394,11 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>sticker/previews/brasilcarnival_202204_Rio.gif</t>
+          <t>sticker/previews/brasilcarnival_202204_Rio.png</t>
         </is>
       </c>
       <c r="O74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -5451,7 +5451,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>efc3d2de-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0bec-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -5461,11 +5461,11 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>sticker/previews/brasilcarnival_202204_Salvador.gif</t>
+          <t>sticker/previews/brasilcarnival_202204_Salvador.png</t>
         </is>
       </c>
       <c r="O75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>efc3d306-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0c1e-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -5528,11 +5528,11 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>sticker/previews/brasilcarnival_202204_SP.gif</t>
+          <t>sticker/previews/brasilcarnival_202204_SP.png</t>
         </is>
       </c>
       <c r="O76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>efc3d32e-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0c46-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -5595,11 +5595,11 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>sticker/previews/subscribe_202204_01A.gif</t>
+          <t>sticker/previews/subscribe_202204_01A.png</t>
         </is>
       </c>
       <c r="O77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>efc3d356-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0c78-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="O78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>efc3d37e-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0ca0-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="O79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -5786,7 +5786,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>efc3d3a6-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0cd2-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -5800,7 +5800,7 @@
         </is>
       </c>
       <c r="O80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>efc3d3ce-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0cfa-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>sticker/previews/subscribe_202204_03A.gif</t>
+          <t>sticker/previews/subscribe_202204_03A.png</t>
         </is>
       </c>
       <c r="O81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -5920,7 +5920,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>efc3d3f6-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0d22-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -5934,7 +5934,7 @@
         </is>
       </c>
       <c r="O82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -5987,7 +5987,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>efc3d41e-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0d54-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -6001,7 +6001,7 @@
         </is>
       </c>
       <c r="O83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>efc3d43c-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0d7c-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -6068,7 +6068,7 @@
         </is>
       </c>
       <c r="O84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>efc3d464-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0dae-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -6135,7 +6135,7 @@
         </is>
       </c>
       <c r="O85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>efc3d48c-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0dd6-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="O86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>efc3d4b4-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0e08-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -6269,7 +6269,7 @@
         </is>
       </c>
       <c r="O87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -6322,7 +6322,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>efc3d4dc-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0e30-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -6336,7 +6336,7 @@
         </is>
       </c>
       <c r="O88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -6389,7 +6389,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>efc3d504-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0e94-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -6399,11 +6399,11 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>sticker/previews/subscribe_202204_07A.gif</t>
+          <t>sticker/previews/subscribe_202204_07A.png</t>
         </is>
       </c>
       <c r="O89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>efc3d522-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0ec6-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -6470,7 +6470,7 @@
         </is>
       </c>
       <c r="O90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>efc3d54a-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0eee-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -6537,7 +6537,7 @@
         </is>
       </c>
       <c r="O91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -6590,7 +6590,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>efc3d572-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0f16-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -6604,7 +6604,7 @@
         </is>
       </c>
       <c r="O92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -6657,7 +6657,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>efc3d59a-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0f3e-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="O93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -6724,7 +6724,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>efc3d5c2-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0f70-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -6738,7 +6738,7 @@
         </is>
       </c>
       <c r="O94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>efc3d5ea-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0f98-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -6805,7 +6805,7 @@
         </is>
       </c>
       <c r="O95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -6858,7 +6858,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>efc3d612-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0fca-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="O96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>efc3d63a-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e0ff2-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -6939,7 +6939,7 @@
         </is>
       </c>
       <c r="O97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>efc3d662-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e101a-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -7006,7 +7006,7 @@
         </is>
       </c>
       <c r="O98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>efc3d68a-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1042-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -7073,7 +7073,7 @@
         </is>
       </c>
       <c r="O99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -7126,7 +7126,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>efc3d6b2-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e106a-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -7140,7 +7140,7 @@
         </is>
       </c>
       <c r="O100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -7193,7 +7193,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>efc3d6da-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e109c-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="O101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -7260,7 +7260,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>efc3d6f8-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e10c4-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -7274,7 +7274,7 @@
         </is>
       </c>
       <c r="O102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>efc3d720-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e10ec-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -7341,7 +7341,7 @@
         </is>
       </c>
       <c r="O103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -7394,7 +7394,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>efc3d748-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e111e-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="O104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>efc3d770-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1146-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -7475,7 +7475,7 @@
         </is>
       </c>
       <c r="O105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>efc3d798-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e116e-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="O106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -7595,7 +7595,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>efc3d7b6-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e11a0-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -7609,7 +7609,7 @@
         </is>
       </c>
       <c r="O107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -7662,7 +7662,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>efc3d7de-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e11c8-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -7676,7 +7676,7 @@
         </is>
       </c>
       <c r="O108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -7729,7 +7729,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>efc3d806-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e11f0-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -7743,7 +7743,7 @@
         </is>
       </c>
       <c r="O109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -7796,7 +7796,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>efc3d82e-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1218-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -7810,7 +7810,7 @@
         </is>
       </c>
       <c r="O110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>efc3d856-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e124a-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -7877,7 +7877,7 @@
         </is>
       </c>
       <c r="O111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>efc3d87e-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1272-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -7944,7 +7944,7 @@
         </is>
       </c>
       <c r="O112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>efc3d8a6-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e129a-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="O113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -8064,7 +8064,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>efc3d8e2-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e12c2-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -8078,7 +8078,7 @@
         </is>
       </c>
       <c r="O114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>efc3d90a-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e12ea-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -8145,7 +8145,7 @@
         </is>
       </c>
       <c r="O115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>efc3d932-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e131c-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
@@ -8212,7 +8212,7 @@
         </is>
       </c>
       <c r="O116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -8265,7 +8265,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>efc3d95a-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1344-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -8279,7 +8279,7 @@
         </is>
       </c>
       <c r="O117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>efc3d982-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e136c-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="O118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>efc3d9aa-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1394-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -8413,7 +8413,7 @@
         </is>
       </c>
       <c r="O119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>efc3d9d2-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e13bc-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -8480,7 +8480,7 @@
         </is>
       </c>
       <c r="O120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -8533,7 +8533,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>efc3d9fa-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e13ee-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
@@ -8547,7 +8547,7 @@
         </is>
       </c>
       <c r="O121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -8600,7 +8600,7 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>efc3da22-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1416-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -8614,7 +8614,7 @@
         </is>
       </c>
       <c r="O122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -8667,7 +8667,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>efc3da40-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e143e-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -8681,7 +8681,7 @@
         </is>
       </c>
       <c r="O123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -8734,7 +8734,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>efc3da68-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1466-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -8748,7 +8748,7 @@
         </is>
       </c>
       <c r="O124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>efc3da90-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1498-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -8815,7 +8815,7 @@
         </is>
       </c>
       <c r="O125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>efc3dab8-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e14c0-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -8882,7 +8882,7 @@
         </is>
       </c>
       <c r="O126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>efc3dae0-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e14e8-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -8949,7 +8949,7 @@
         </is>
       </c>
       <c r="O127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -9002,7 +9002,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>efc3db08-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e151a-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -9016,7 +9016,7 @@
         </is>
       </c>
       <c r="O128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -9069,7 +9069,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>efc3db30-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1542-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -9083,7 +9083,7 @@
         </is>
       </c>
       <c r="O129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>efc3db4e-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1574-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -9150,7 +9150,7 @@
         </is>
       </c>
       <c r="O130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -9203,7 +9203,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>efc3db76-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e159c-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -9217,7 +9217,7 @@
         </is>
       </c>
       <c r="O131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -9270,7 +9270,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>efc3db9e-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e15c4-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -9284,7 +9284,7 @@
         </is>
       </c>
       <c r="O132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>efc3dbc6-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e15ec-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -9351,7 +9351,7 @@
         </is>
       </c>
       <c r="O133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>efc3dbee-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1614-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -9418,7 +9418,7 @@
         </is>
       </c>
       <c r="O134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>efc3dc0c-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1646-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -9485,7 +9485,7 @@
         </is>
       </c>
       <c r="O135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -9538,7 +9538,7 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>efc3dc34-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e166e-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -9552,7 +9552,7 @@
         </is>
       </c>
       <c r="O136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -9605,7 +9605,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>efc3dc5c-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1696-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -9619,7 +9619,7 @@
         </is>
       </c>
       <c r="O137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -9672,7 +9672,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>efc3dc84-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e16c8-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -9686,7 +9686,7 @@
         </is>
       </c>
       <c r="O138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -9739,7 +9739,7 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>efc3dcac-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e16fa-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -9753,7 +9753,7 @@
         </is>
       </c>
       <c r="O139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -9806,7 +9806,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>efc3dcd4-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1722-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -9820,7 +9820,7 @@
         </is>
       </c>
       <c r="O140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -9873,7 +9873,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>efc3dcfc-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e174a-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -9887,7 +9887,7 @@
         </is>
       </c>
       <c r="O141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -9940,7 +9940,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>efc3dd24-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1772-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -9954,7 +9954,7 @@
         </is>
       </c>
       <c r="O142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -10007,7 +10007,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>efc3dd4c-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e17a4-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="O143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -10074,7 +10074,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>efc3dd74-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e17cc-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
@@ -10088,7 +10088,7 @@
         </is>
       </c>
       <c r="O144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>efc3dd9c-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e17f4-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -10155,7 +10155,7 @@
         </is>
       </c>
       <c r="O145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>efc3ddc4-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e181c-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -10222,7 +10222,7 @@
         </is>
       </c>
       <c r="O146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>efc3ddec-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e184e-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -10289,7 +10289,7 @@
         </is>
       </c>
       <c r="O147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -10342,7 +10342,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>efc3de0a-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1876-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -10356,7 +10356,7 @@
         </is>
       </c>
       <c r="O148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -10409,7 +10409,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>efc3de32-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e189e-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -10423,7 +10423,7 @@
         </is>
       </c>
       <c r="O149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -10476,7 +10476,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>efc3de5a-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e18c6-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -10486,11 +10486,11 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>sticker/previews/arrows_202205_01A.gif</t>
+          <t>sticker/previews/arrows_202205_01A.png</t>
         </is>
       </c>
       <c r="O150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -10543,7 +10543,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>efc3de82-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e18f8-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="O151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -10610,7 +10610,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>efc3deaa-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1920-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -10620,11 +10620,11 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>sticker/previews/arrows_202205_02A.gif</t>
+          <t>sticker/previews/arrows_202205_02A.png</t>
         </is>
       </c>
       <c r="O152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>efc3ded2-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1948-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -10691,7 +10691,7 @@
         </is>
       </c>
       <c r="O153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>efc3defa-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1970-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -10754,11 +10754,11 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>sticker/previews/arrows_202205_03A.gif</t>
+          <t>sticker/previews/arrows_202205_03A.png</t>
         </is>
       </c>
       <c r="O154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>efc3df22-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e19a2-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -10825,7 +10825,7 @@
         </is>
       </c>
       <c r="O155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -10878,7 +10878,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>efc3df40-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e19ca-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -10888,11 +10888,11 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>sticker/previews/arrows_202205_04A.gif</t>
+          <t>sticker/previews/arrows_202205_04A.png</t>
         </is>
       </c>
       <c r="O156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -10945,7 +10945,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>efc3df68-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e19f2-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -10959,7 +10959,7 @@
         </is>
       </c>
       <c r="O157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -11012,7 +11012,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>efc3df90-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1a24-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -11022,11 +11022,11 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>sticker/previews/arrows_202205_05A.gif</t>
+          <t>sticker/previews/arrows_202205_05A.png</t>
         </is>
       </c>
       <c r="O158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -11079,7 +11079,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>efc3dfb8-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1a4c-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -11093,7 +11093,7 @@
         </is>
       </c>
       <c r="O159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -11146,7 +11146,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>efc3dfe0-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1a74-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
@@ -11156,11 +11156,11 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>sticker/previews/arrows_202205_06A.gif</t>
+          <t>sticker/previews/arrows_202205_06A.png</t>
         </is>
       </c>
       <c r="O160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -11213,7 +11213,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>efc3e008-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1a9c-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -11227,7 +11227,7 @@
         </is>
       </c>
       <c r="O161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -11280,7 +11280,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>efc3e030-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1ace-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -11290,11 +11290,11 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>sticker/previews/arrows_202205_07A.gif</t>
+          <t>sticker/previews/arrows_202205_07A.png</t>
         </is>
       </c>
       <c r="O162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -11347,7 +11347,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>efc3e058-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1af6-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -11361,7 +11361,7 @@
         </is>
       </c>
       <c r="O163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -11414,7 +11414,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>efc3e076-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1b28-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -11424,11 +11424,11 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>sticker/previews/arrows_202205_08A.gif</t>
+          <t>sticker/previews/arrows_202205_08A.png</t>
         </is>
       </c>
       <c r="O164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>efc3e09e-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1b50-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -11495,7 +11495,7 @@
         </is>
       </c>
       <c r="O165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>efc3e0c6-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1b78-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -11558,11 +11558,11 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>sticker/previews/arrows_202205_09A.gif</t>
+          <t>sticker/previews/arrows_202205_09A.png</t>
         </is>
       </c>
       <c r="O166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -11615,7 +11615,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>efc3e0ee-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1baa-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -11629,7 +11629,7 @@
         </is>
       </c>
       <c r="O167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -11682,7 +11682,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>efc3e116-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1bd2-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -11692,11 +11692,11 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>sticker/previews/arrows_202205_10A.gif</t>
+          <t>sticker/previews/arrows_202205_10A.png</t>
         </is>
       </c>
       <c r="O168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -11749,7 +11749,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>efc3e13e-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1bfa-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -11763,7 +11763,7 @@
         </is>
       </c>
       <c r="O169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -11816,7 +11816,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>efc3e15c-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1c2c-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -11830,7 +11830,7 @@
         </is>
       </c>
       <c r="O170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -11883,7 +11883,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>efc3e184-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1c54-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -11897,7 +11897,7 @@
         </is>
       </c>
       <c r="O171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -11950,7 +11950,7 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>efc3e1ac-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1c7c-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -11960,11 +11960,11 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>sticker/previews/easter_202205_03.gif</t>
+          <t>sticker/previews/easter_202205_03.png</t>
         </is>
       </c>
       <c r="O172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -12017,7 +12017,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>efc3e1d4-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1cae-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -12031,7 +12031,7 @@
         </is>
       </c>
       <c r="O173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -12084,7 +12084,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>efc3e1fc-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1cd6-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -12098,7 +12098,7 @@
         </is>
       </c>
       <c r="O174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -12151,7 +12151,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>efc3e21a-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1cfe-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -12161,11 +12161,11 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>sticker/previews/easter_202205_06.gif</t>
+          <t>sticker/previews/easter_202205_06.png</t>
         </is>
       </c>
       <c r="O175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -12218,7 +12218,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>efc3e242-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1d30-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -12228,11 +12228,11 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>sticker/previews/easter_202205_07.gif</t>
+          <t>sticker/previews/easter_202205_07.png</t>
         </is>
       </c>
       <c r="O176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -12285,7 +12285,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>efc3e26a-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1d58-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -12295,11 +12295,11 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>sticker/previews/easter_202205_08.gif</t>
+          <t>sticker/previews/easter_202205_08.png</t>
         </is>
       </c>
       <c r="O177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -12352,7 +12352,7 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>efc3e29c-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1d80-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -12362,11 +12362,11 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>sticker/previews/easter_202205_09.gif</t>
+          <t>sticker/previews/easter_202205_09.png</t>
         </is>
       </c>
       <c r="O178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -12419,7 +12419,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>efc3e2ba-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1db2-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -12429,11 +12429,11 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>sticker/previews/easter_202205_10.gif</t>
+          <t>sticker/previews/easter_202205_10.png</t>
         </is>
       </c>
       <c r="O179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -12486,7 +12486,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>efc3e2e2-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1dda-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -12500,7 +12500,7 @@
         </is>
       </c>
       <c r="O180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -12553,7 +12553,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>efc3e30a-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1e02-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -12563,11 +12563,11 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>sticker/previews/effects_202205_01B.gif</t>
+          <t>sticker/previews/effects_202205_01B.png</t>
         </is>
       </c>
       <c r="O181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -12620,7 +12620,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>efc3e332-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1e2a-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -12634,7 +12634,7 @@
         </is>
       </c>
       <c r="O182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -12687,7 +12687,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>efc3e35a-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1e5c-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -12697,11 +12697,11 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>sticker/previews/effects_202205_02B.gif</t>
+          <t>sticker/previews/effects_202205_02B.png</t>
         </is>
       </c>
       <c r="O183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -12754,7 +12754,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>efc3e382-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1e84-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -12768,7 +12768,7 @@
         </is>
       </c>
       <c r="O184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>efc3e3aa-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1eac-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -12831,11 +12831,11 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>sticker/previews/effects_202205_03B.gif</t>
+          <t>sticker/previews/effects_202205_03B.png</t>
         </is>
       </c>
       <c r="O185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -12888,7 +12888,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>efc3e3c8-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1ed4-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -12902,7 +12902,7 @@
         </is>
       </c>
       <c r="O186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -12955,7 +12955,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>efc3e3f0-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1f06-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -12965,11 +12965,11 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>sticker/previews/effects_202205_04B.gif</t>
+          <t>sticker/previews/effects_202205_04B.png</t>
         </is>
       </c>
       <c r="O187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -13022,7 +13022,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>efc3e418-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1f2e-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -13036,7 +13036,7 @@
         </is>
       </c>
       <c r="O188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -13089,7 +13089,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>efc3e440-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1f56-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -13099,11 +13099,11 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>sticker/previews/effects_202205_05B.gif</t>
+          <t>sticker/previews/effects_202205_05B.png</t>
         </is>
       </c>
       <c r="O189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -13156,7 +13156,7 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>efc3e468-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1f88-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -13170,7 +13170,7 @@
         </is>
       </c>
       <c r="O190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -13223,7 +13223,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>efc3e490-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1fb0-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -13233,11 +13233,11 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>sticker/previews/effects_202205_06B.gif</t>
+          <t>sticker/previews/effects_202205_06B.png</t>
         </is>
       </c>
       <c r="O191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -13290,7 +13290,7 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>efc3e4b8-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e1fd8-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
@@ -13304,7 +13304,7 @@
         </is>
       </c>
       <c r="O192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -13357,7 +13357,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>efc3e4e0-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e200a-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -13367,11 +13367,11 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>sticker/previews/effects_202205_07B.gif</t>
+          <t>sticker/previews/effects_202205_07B.png</t>
         </is>
       </c>
       <c r="O193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>efc3e508-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e2032-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -13438,7 +13438,7 @@
         </is>
       </c>
       <c r="O194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -13491,7 +13491,7 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>efc3e530-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e2064-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -13501,11 +13501,11 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>sticker/previews/effects_202205_08B.gif</t>
+          <t>sticker/previews/effects_202205_08B.png</t>
         </is>
       </c>
       <c r="O195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -13558,7 +13558,7 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>efc3e558-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e208c-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
@@ -13572,7 +13572,7 @@
         </is>
       </c>
       <c r="O196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -13625,7 +13625,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>efc3e580-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e20be-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
@@ -13635,11 +13635,11 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>sticker/previews/effects_202205_09B.gif</t>
+          <t>sticker/previews/effects_202205_09B.png</t>
         </is>
       </c>
       <c r="O197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -13692,7 +13692,7 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>efc3e59e-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e20e6-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
@@ -13706,7 +13706,7 @@
         </is>
       </c>
       <c r="O198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -13759,7 +13759,7 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>efc3e5c6-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e2118-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -13769,11 +13769,11 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>sticker/previews/effects_202205_10B.gif</t>
+          <t>sticker/previews/effects_202205_10B.png</t>
         </is>
       </c>
       <c r="O199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -13826,7 +13826,7 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>efc3e5ee-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e2140-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
@@ -13836,11 +13836,11 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>sticker/previews/food_202205_01.gif</t>
+          <t>sticker/previews/food_202205_01.png</t>
         </is>
       </c>
       <c r="O200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -13893,7 +13893,7 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>efc3e616-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e2172-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
@@ -13907,7 +13907,7 @@
         </is>
       </c>
       <c r="O201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>efc3e63e-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e219a-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
@@ -13974,7 +13974,7 @@
         </is>
       </c>
       <c r="O202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -14027,7 +14027,7 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>efc3e666-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e21cc-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
@@ -14041,7 +14041,7 @@
         </is>
       </c>
       <c r="O203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -14094,7 +14094,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>efc3e68e-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e21f4-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
@@ -14104,11 +14104,11 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>sticker/previews/food_202205_05.gif</t>
+          <t>sticker/previews/food_202205_05.png</t>
         </is>
       </c>
       <c r="O204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -14161,7 +14161,7 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>efc3e6b6-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e221c-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
@@ -14171,11 +14171,11 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>sticker/previews/food_202205_06.gif</t>
+          <t>sticker/previews/food_202205_06.png</t>
         </is>
       </c>
       <c r="O205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -14228,7 +14228,7 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>efc3e6de-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e224e-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
@@ -14238,11 +14238,11 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>sticker/previews/food_202205_07.gif</t>
+          <t>sticker/previews/food_202205_07.png</t>
         </is>
       </c>
       <c r="O206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -14295,7 +14295,7 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>efc3e706-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e2276-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
@@ -14309,7 +14309,7 @@
         </is>
       </c>
       <c r="O207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -14362,7 +14362,7 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>efc3e72e-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e229e-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
@@ -14372,11 +14372,11 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>sticker/previews/food_202205_09.gif</t>
+          <t>sticker/previews/food_202205_09.png</t>
         </is>
       </c>
       <c r="O208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -14429,7 +14429,7 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>efc3e74c-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e22d0-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
@@ -14439,11 +14439,11 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>sticker/previews/food_202205_10.gif</t>
+          <t>sticker/previews/food_202205_10.png</t>
         </is>
       </c>
       <c r="O209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -14496,7 +14496,7 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>efc3e774-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e22f8-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
@@ -14506,11 +14506,11 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>sticker/previews/music_202205_01.gif</t>
+          <t>sticker/previews/music_202205_01.png</t>
         </is>
       </c>
       <c r="O210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -14563,7 +14563,7 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>efc3e79c-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e2320-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
@@ -14573,11 +14573,11 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>sticker/previews/music_202205_02.gif</t>
+          <t>sticker/previews/music_202205_02.png</t>
         </is>
       </c>
       <c r="O211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -14630,7 +14630,7 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>efc3e7c4-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e2352-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
@@ -14644,7 +14644,7 @@
         </is>
       </c>
       <c r="O212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -14697,7 +14697,7 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>efc3e7ec-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e237a-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M213" t="inlineStr">
@@ -14707,11 +14707,11 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>sticker/previews/music_202205_04.gif</t>
+          <t>sticker/previews/music_202205_04.png</t>
         </is>
       </c>
       <c r="O213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -14764,7 +14764,7 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>efc3e814-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e23a2-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
@@ -14774,11 +14774,11 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>sticker/previews/music_202205_05.gif</t>
+          <t>sticker/previews/music_202205_05.png</t>
         </is>
       </c>
       <c r="O214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>efc3e83c-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e23ca-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
@@ -14845,7 +14845,7 @@
         </is>
       </c>
       <c r="O215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -14898,7 +14898,7 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>efc3e864-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e23fc-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
@@ -14908,11 +14908,11 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>sticker/previews/music_202205_07.gif</t>
+          <t>sticker/previews/music_202205_07.png</t>
         </is>
       </c>
       <c r="O216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -14965,7 +14965,7 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>efc3e882-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e2424-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
@@ -14979,7 +14979,7 @@
         </is>
       </c>
       <c r="O217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -15032,7 +15032,7 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>efc3e8aa-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e244c-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="O218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -15099,7 +15099,7 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>efc3e8d2-ceb0-11ec-90ec-acde48001122</t>
+          <t>206e247e-cf43-11ec-b5cd-acde48001122</t>
         </is>
       </c>
       <c r="M219" t="inlineStr">
@@ -15109,11 +15109,11 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>sticker/previews/music_202205_10.gif</t>
+          <t>sticker/previews/music_202205_10.png</t>
         </is>
       </c>
       <c r="O219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
